--- a/999_Replication_Paper/01_Basel_I/Basel_I_Text_Data.xlsx
+++ b/999_Replication_Paper/01_Basel_I/Basel_I_Text_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colliard\Desktop\Measuring Regulatory Complexity\Basel I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colliard\Desktop\RegulatoryComplexity_Replication\01_Basel_I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F9B606-CFA5-4791-ACC6-23BC19C0E428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B7CAB0-7371-4B2A-A1A6-1EF15B2A82DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>1a</t>
   </si>
@@ -109,6 +109,297 @@
   </si>
   <si>
     <t>REGULATORY</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>excluding</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>including</t>
+  </si>
+  <si>
+    <t>up to</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>risk weight</t>
+  </si>
+  <si>
+    <t>claims</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>"100%"</t>
+  </si>
+  <si>
+    <t>"20%"</t>
+  </si>
+  <si>
+    <t>guaranteed</t>
+  </si>
+  <si>
+    <t>"0%"</t>
+  </si>
+  <si>
+    <t>incorporated</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>entities</t>
+  </si>
+  <si>
+    <t>governments</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>loans</t>
+  </si>
+  <si>
+    <t>maturity</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>one year</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>residual</t>
+  </si>
+  <si>
+    <t>"50%"</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>collateralised</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>denominated</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>funded</t>
+  </si>
+  <si>
+    <t>issued</t>
+  </si>
+  <si>
+    <t>securities</t>
+  </si>
+  <si>
+    <t>"10%"</t>
+  </si>
+  <si>
+    <t>AfDB</t>
+  </si>
+  <si>
+    <t>AsDB</t>
+  </si>
+  <si>
+    <t>borrower</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>consolidated</t>
+  </si>
+  <si>
+    <t>deducted</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>discretion</t>
+  </si>
+  <si>
+    <t>EIB</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>fully</t>
+  </si>
+  <si>
+    <t>IADB</t>
+  </si>
+  <si>
+    <t>IBRD</t>
+  </si>
+  <si>
+    <t>in process</t>
+  </si>
+  <si>
+    <t>instruments</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>investments</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>multilateral</t>
+  </si>
+  <si>
+    <t>occupied</t>
+  </si>
+  <si>
+    <t>owned</t>
+  </si>
+  <si>
+    <t>participations</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>premises</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>real estate</t>
+  </si>
+  <si>
+    <t>rented</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>secured</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>shall</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>Word</t>
   </si>
 </sst>
 </file>
@@ -461,108 +752,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09A56CA-2D78-46B1-8A7D-9C69AFE07966}">
-  <dimension ref="A1:Y97"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.90625" style="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -570,8 +864,8 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -586,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -628,19 +922,23 @@
         <v>0</v>
       </c>
       <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <f>A2+1</f>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -648,7 +946,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3">
@@ -661,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -706,19 +1004,23 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B67" si="0">B3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -726,7 +1028,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4">
@@ -760,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -784,19 +1086,23 @@
         <v>1</v>
       </c>
       <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -804,7 +1110,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5">
@@ -817,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -835,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -862,19 +1168,23 @@
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -882,7 +1192,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6">
@@ -895,10 +1205,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -913,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -940,17 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
@@ -960,8 +1274,8 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>1</v>
+      <c r="F7" s="1">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -982,11 +1296,11 @@
         <v>1</v>
       </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
         <v>1</v>
       </c>
@@ -997,11 +1311,11 @@
         <v>1</v>
       </c>
       <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="T7">
         <v>1</v>
       </c>
@@ -1018,27 +1332,31 @@
         <v>1</v>
       </c>
       <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8">
@@ -1078,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1096,19 +1414,23 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1116,7 +1438,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9">
@@ -1132,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1174,27 +1496,31 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10">
@@ -1249,43 +1575,47 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1300,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1312,37 +1642,41 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>2</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1350,7 +1684,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12">
@@ -1366,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1408,19 +1742,23 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1428,7 +1766,7 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13">
@@ -1474,29 +1812,33 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
@@ -1506,7 +1848,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14">
@@ -1519,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1564,19 +1906,23 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1584,23 +1930,23 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1609,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1621,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1636,23 +1982,27 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
@@ -1662,7 +2012,7 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16">
@@ -1693,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -1720,19 +2070,23 @@
         <v>0</v>
       </c>
       <c r="Y16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1740,7 +2094,7 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17">
@@ -1771,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1798,17 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
@@ -1818,7 +2176,7 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18">
@@ -1828,17 +2186,17 @@
         <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
       <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
         <v>1</v>
       </c>
@@ -1846,14 +2204,14 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>2</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
       <c r="R18">
         <v>0</v>
       </c>
@@ -1861,34 +2219,38 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1896,7 +2258,7 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19">
@@ -1948,25 +2310,29 @@
         <v>0</v>
       </c>
       <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <v>2</v>
       </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
       <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1974,20 +2340,20 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>1</v>
+      <c r="F20" s="1">
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2002,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2032,19 +2398,23 @@
         <v>0</v>
       </c>
       <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -2052,11 +2422,11 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2065,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2077,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2092,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2110,19 +2480,23 @@
         <v>0</v>
       </c>
       <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -2130,11 +2504,11 @@
       <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2146,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -2155,16 +2529,16 @@
         <v>2</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>1</v>
@@ -2176,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2188,19 +2562,23 @@
         <v>0</v>
       </c>
       <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2208,7 +2586,7 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23">
@@ -2218,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2266,19 +2644,23 @@
         <v>0</v>
       </c>
       <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -2286,7 +2668,7 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24">
@@ -2314,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2344,19 +2726,23 @@
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -2364,7 +2750,7 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25">
@@ -2407,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2422,19 +2808,23 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -2442,7 +2832,7 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26">
@@ -2485,34 +2875,38 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -2520,7 +2914,7 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27">
@@ -2569,28 +2963,32 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -2598,7 +2996,7 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28">
@@ -2620,11 +3018,11 @@
         <v>0</v>
       </c>
       <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
       <c r="O28">
         <v>0</v>
       </c>
@@ -2656,19 +3054,23 @@
         <v>0</v>
       </c>
       <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -2676,15 +3078,15 @@
       <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
         <v>0</v>
       </c>
@@ -2716,11 +3118,11 @@
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>2</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
         <v>0</v>
       </c>
@@ -2734,19 +3136,23 @@
         <v>0</v>
       </c>
       <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2754,7 +3160,7 @@
       <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30">
@@ -2806,25 +3212,29 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -2832,14 +3242,14 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2872,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -2890,19 +3300,23 @@
         <v>0</v>
       </c>
       <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -2910,7 +3324,7 @@
       <c r="E32" s="1">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32">
@@ -2926,10 +3340,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2968,19 +3382,23 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -2988,7 +3406,7 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33">
@@ -3001,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3046,19 +3464,23 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -3066,7 +3488,7 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34">
@@ -3079,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3091,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3124,19 +3546,23 @@
         <v>0</v>
       </c>
       <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -3144,7 +3570,7 @@
       <c r="E35" s="1">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35">
@@ -3160,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3202,19 +3628,23 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -3222,7 +3652,7 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36">
@@ -3235,11 +3665,11 @@
         <v>0</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
@@ -3247,11 +3677,11 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>2</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
       <c r="P36">
         <v>0</v>
       </c>
@@ -3280,19 +3710,23 @@
         <v>0</v>
       </c>
       <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -3300,7 +3734,7 @@
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37">
@@ -3346,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3358,27 +3792,31 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
       <c r="C38" s="1">
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38">
@@ -3391,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3403,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3436,19 +3874,23 @@
         <v>0</v>
       </c>
       <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="AC38" s="1"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -3456,7 +3898,7 @@
       <c r="E39" s="1">
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39">
@@ -3502,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -3514,17 +3956,21 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
@@ -3534,7 +3980,7 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40">
@@ -3586,25 +4032,29 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="1"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -3612,7 +4062,7 @@
       <c r="E41" s="1">
         <v>0</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41">
@@ -3643,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3670,19 +4120,23 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -3690,14 +4144,14 @@
       <c r="E42" s="1">
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3730,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3748,19 +4202,23 @@
         <v>0</v>
       </c>
       <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="AC42" s="1"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -3768,7 +4226,7 @@
       <c r="E43" s="1">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43">
@@ -3778,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3793,10 +4251,10 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -3826,19 +4284,23 @@
         <v>0</v>
       </c>
       <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="AC43" s="1"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -3846,11 +4308,11 @@
       <c r="E44" s="1">
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -3859,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3886,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -3904,19 +4366,23 @@
         <v>0</v>
       </c>
       <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="AC44" s="1"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -3924,7 +4390,7 @@
       <c r="E45" s="1">
         <v>0</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45">
@@ -3934,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -3952,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3982,17 +4448,21 @@
         <v>0</v>
       </c>
       <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="AC45" s="1"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
@@ -4000,9 +4470,9 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46">
@@ -4060,19 +4530,23 @@
         <v>1</v>
       </c>
       <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="AC46" s="1"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -4080,7 +4554,7 @@
       <c r="E47" s="1">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47">
@@ -4096,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4138,19 +4612,23 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="1"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -4158,7 +4636,7 @@
       <c r="E48" s="1">
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>0</v>
       </c>
       <c r="G48">
@@ -4174,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4216,17 +4694,21 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="1"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
       <c r="C49" s="1">
         <v>0</v>
       </c>
@@ -4236,15 +4718,15 @@
       <c r="E49" s="1">
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>2</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
         <v>0</v>
       </c>
@@ -4255,14 +4737,14 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
         <v>2</v>
       </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
       <c r="O49">
         <v>0</v>
       </c>
@@ -4276,37 +4758,41 @@
         <v>0</v>
       </c>
       <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>2</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -4314,7 +4800,7 @@
       <c r="E50" s="1">
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>0</v>
       </c>
       <c r="G50">
@@ -4342,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4372,27 +4858,31 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="1"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
       <c r="C51" s="1">
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
         <v>0</v>
       </c>
       <c r="G51">
@@ -4441,28 +4931,32 @@
         <v>0</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="1"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="1">
-        <v>1</v>
-      </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -4470,7 +4964,7 @@
       <c r="E52" s="1">
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52">
@@ -4489,13 +4983,13 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>2</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -4507,10 +5001,10 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -4528,19 +5022,23 @@
         <v>0</v>
       </c>
       <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="1">
-        <v>1</v>
-      </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -4548,7 +5046,7 @@
       <c r="E53" s="1">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53">
@@ -4600,25 +5098,29 @@
         <v>0</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="1">
-        <v>1</v>
-      </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -4626,7 +5128,7 @@
       <c r="E54" s="1">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54">
@@ -4675,28 +5177,32 @@
         <v>0</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="1"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -4704,7 +5210,7 @@
       <c r="E55" s="1">
         <v>0</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55">
@@ -4753,26 +5259,30 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="1"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
       <c r="C56" s="1">
         <v>0</v>
       </c>
@@ -4782,7 +5292,7 @@
       <c r="E56" s="1">
         <v>0</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56">
@@ -4813,11 +5323,11 @@
         <v>0</v>
       </c>
       <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>2</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
       <c r="R56">
         <v>0</v>
       </c>
@@ -4840,19 +5350,23 @@
         <v>0</v>
       </c>
       <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="AC56" s="1"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -4860,7 +5374,7 @@
       <c r="E57" s="1">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57">
@@ -4876,10 +5390,10 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4912,25 +5426,29 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="AC57" s="1"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -4938,7 +5456,7 @@
       <c r="E58" s="1">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58">
@@ -4966,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -4996,19 +5514,23 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="1"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="1">
-        <v>1</v>
-      </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -5016,7 +5538,7 @@
       <c r="E59" s="1">
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>0</v>
       </c>
       <c r="G59">
@@ -5029,10 +5551,10 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -5041,16 +5563,16 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -5074,19 +5596,23 @@
         <v>0</v>
       </c>
       <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="AC59" s="1"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="1">
-        <v>1</v>
-      </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -5094,7 +5620,7 @@
       <c r="E60" s="1">
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60">
@@ -5116,11 +5642,11 @@
         <v>0</v>
       </c>
       <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
         <v>2</v>
       </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
       <c r="O60">
         <v>0</v>
       </c>
@@ -5131,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -5152,19 +5678,23 @@
         <v>0</v>
       </c>
       <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="AC60" s="1"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="1">
-        <v>1</v>
-      </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
@@ -5172,7 +5702,7 @@
       <c r="E61" s="1">
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61">
@@ -5203,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -5230,19 +5760,23 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="1"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="1">
-        <v>1</v>
-      </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -5250,7 +5784,7 @@
       <c r="E62" s="1">
         <v>0</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62">
@@ -5266,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -5308,19 +5842,23 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="1"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -5328,23 +5866,23 @@
       <c r="E63" s="1">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -5368,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -5386,27 +5924,31 @@
         <v>0</v>
       </c>
       <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="AC63" s="1"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
       <c r="C64" s="1">
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
         <v>0</v>
       </c>
       <c r="G64">
@@ -5431,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -5455,28 +5997,32 @@
         <v>0</v>
       </c>
       <c r="V64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64">
         <v>0</v>
       </c>
       <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="AC64" s="1"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="1">
-        <v>1</v>
-      </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -5484,7 +6030,7 @@
       <c r="E65" s="1">
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>0</v>
       </c>
       <c r="G65">
@@ -5515,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -5542,19 +6088,23 @@
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="1"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -5562,35 +6112,35 @@
       <c r="E66" s="1">
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
         <v>2</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>2</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -5599,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66">
         <v>1</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -5620,17 +6170,21 @@
         <v>0</v>
       </c>
       <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="AC66" s="1"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
@@ -5640,7 +6194,7 @@
       <c r="E67" s="1">
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>0</v>
       </c>
       <c r="G67">
@@ -5650,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -5662,25 +6216,25 @@
         <v>0</v>
       </c>
       <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>2</v>
       </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67">
         <v>0</v>
@@ -5698,17 +6252,21 @@
         <v>0</v>
       </c>
       <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <f t="shared" ref="A68:A97" si="1">A67+1</f>
+      <c r="AC67" s="1"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" ref="B68:B97" si="1">B67+1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
       <c r="C68" s="1">
         <v>0</v>
       </c>
@@ -5718,20 +6276,20 @@
       <c r="E68" s="1">
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -5746,10 +6304,10 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -5764,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -5776,19 +6334,23 @@
         <v>0</v>
       </c>
       <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="AC68" s="1"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="1">
-        <v>1</v>
-      </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -5796,7 +6358,7 @@
       <c r="E69" s="1">
         <v>0</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>0</v>
       </c>
       <c r="G69">
@@ -5818,11 +6380,11 @@
         <v>0</v>
       </c>
       <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>2</v>
       </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
       <c r="O69">
         <v>0</v>
       </c>
@@ -5833,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -5854,27 +6416,31 @@
         <v>0</v>
       </c>
       <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="AC69" s="1"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="1">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
       <c r="C70" s="1">
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
         <v>0</v>
       </c>
       <c r="G70">
@@ -5884,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5893,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -5905,11 +6471,11 @@
         <v>0</v>
       </c>
       <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
         <v>2</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
       <c r="R70">
         <v>0</v>
       </c>
@@ -5932,37 +6498,41 @@
         <v>0</v>
       </c>
       <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="AC70" s="1"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
         <v>0</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -5998,39 +6568,43 @@
         <v>0</v>
       </c>
       <c r="U71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
         <v>2</v>
       </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
       <c r="X71">
         <v>1</v>
       </c>
       <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="AC71" s="1"/>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
         <v>0</v>
       </c>
       <c r="G72">
@@ -6052,11 +6626,11 @@
         <v>0</v>
       </c>
       <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
         <v>2</v>
       </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
       <c r="O72">
         <v>0</v>
       </c>
@@ -6067,13 +6641,13 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -6088,27 +6662,31 @@
         <v>0</v>
       </c>
       <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="AC72" s="1"/>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>0</v>
       </c>
       <c r="G73">
@@ -6145,10 +6723,10 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73">
         <v>0</v>
@@ -6166,19 +6744,23 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="1"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" s="1">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="1">
-        <v>1</v>
-      </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -6186,7 +6768,7 @@
       <c r="E74" s="1">
         <v>0</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>0</v>
       </c>
       <c r="G74">
@@ -6229,10 +6811,10 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -6244,19 +6826,23 @@
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="1"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -6264,7 +6850,7 @@
       <c r="E75" s="1">
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>0</v>
       </c>
       <c r="G75">
@@ -6313,28 +6899,32 @@
         <v>0</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X75">
         <v>0</v>
       </c>
       <c r="Y75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="1"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="1">
-        <v>1</v>
-      </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -6342,7 +6932,7 @@
       <c r="E76" s="1">
         <v>0</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>0</v>
       </c>
       <c r="G76">
@@ -6388,10 +6978,10 @@
         <v>0</v>
       </c>
       <c r="U76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W76">
         <v>0</v>
@@ -6400,19 +6990,23 @@
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="1"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="1">
-        <v>1</v>
-      </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -6420,7 +7014,7 @@
       <c r="E77" s="1">
         <v>0</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>0</v>
       </c>
       <c r="G77">
@@ -6466,10 +7060,10 @@
         <v>0</v>
       </c>
       <c r="U77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77">
         <v>0</v>
@@ -6478,19 +7072,23 @@
         <v>0</v>
       </c>
       <c r="Y77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="1"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="1">
-        <v>1</v>
-      </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -6498,7 +7096,7 @@
       <c r="E78" s="1">
         <v>0</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>0</v>
       </c>
       <c r="G78">
@@ -6532,10 +7130,10 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -6556,19 +7154,23 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="1"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="1">
-        <v>1</v>
-      </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -6576,7 +7178,7 @@
       <c r="E79" s="1">
         <v>0</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>0</v>
       </c>
       <c r="G79">
@@ -6607,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -6634,19 +7236,23 @@
         <v>0</v>
       </c>
       <c r="Y79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="1"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="1">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="1">
-        <v>1</v>
-      </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -6654,7 +7260,7 @@
       <c r="E80" s="1">
         <v>0</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>0</v>
       </c>
       <c r="G80">
@@ -6667,10 +7273,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -6679,10 +7285,10 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -6697,10 +7303,10 @@
         <v>0</v>
       </c>
       <c r="T80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -6712,19 +7318,23 @@
         <v>0</v>
       </c>
       <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="AC80" s="1"/>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>1</v>
-      </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -6732,7 +7342,7 @@
       <c r="E81" s="1">
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>0</v>
       </c>
       <c r="G81">
@@ -6781,28 +7391,32 @@
         <v>0</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="1"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>1</v>
-      </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -6810,7 +7424,7 @@
       <c r="E82" s="1">
         <v>0</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>0</v>
       </c>
       <c r="G82">
@@ -6841,10 +7455,10 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6868,19 +7482,23 @@
         <v>0</v>
       </c>
       <c r="Y82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="1"/>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="1">
-        <v>1</v>
-      </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -6888,7 +7506,7 @@
       <c r="E83" s="1">
         <v>0</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83">
@@ -6919,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6946,19 +7564,23 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="1"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="1">
-        <v>1</v>
-      </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -6966,7 +7588,7 @@
       <c r="E84" s="1">
         <v>0</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>0</v>
       </c>
       <c r="G84">
@@ -6988,11 +7610,11 @@
         <v>0</v>
       </c>
       <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
         <v>2</v>
       </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
       <c r="O84">
         <v>0</v>
       </c>
@@ -7003,10 +7625,10 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84">
         <v>0</v>
@@ -7024,19 +7646,23 @@
         <v>0</v>
       </c>
       <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="AC84" s="1"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="1">
-        <v>1</v>
-      </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -7044,8 +7670,8 @@
       <c r="E85" s="1">
         <v>0</v>
       </c>
-      <c r="F85">
-        <v>1</v>
+      <c r="F85" s="1">
+        <v>0</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7102,19 +7728,23 @@
         <v>1</v>
       </c>
       <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+      <c r="AC85" s="1"/>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86" s="1">
-        <v>1</v>
-      </c>
       <c r="C86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>0</v>
@@ -7122,7 +7752,7 @@
       <c r="E86" s="1">
         <v>0</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>0</v>
       </c>
       <c r="G86">
@@ -7135,10 +7765,10 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -7147,28 +7777,28 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
       <c r="T86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -7180,19 +7810,23 @@
         <v>0</v>
       </c>
       <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="AC86" s="1"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87" s="1">
-        <v>1</v>
-      </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -7200,7 +7834,7 @@
       <c r="E87" s="1">
         <v>0</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>0</v>
       </c>
       <c r="G87">
@@ -7231,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -7258,19 +7892,23 @@
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="1"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88" s="1">
-        <v>1</v>
-      </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
         <v>0</v>
@@ -7278,7 +7916,7 @@
       <c r="E88" s="1">
         <v>0</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>0</v>
       </c>
       <c r="G88">
@@ -7288,16 +7926,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -7336,17 +7974,21 @@
         <v>0</v>
       </c>
       <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+      <c r="AC88" s="1"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89" s="1">
-        <v>0</v>
-      </c>
       <c r="C89" s="1">
         <v>0</v>
       </c>
@@ -7356,7 +7998,7 @@
       <c r="E89" s="1">
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>0</v>
       </c>
       <c r="G89">
@@ -7396,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="S89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -7414,17 +8056,21 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="1"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
       <c r="C90" s="1">
         <v>0</v>
       </c>
@@ -7432,9 +8078,9 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
         <v>1</v>
       </c>
       <c r="G90">
@@ -7492,17 +8138,21 @@
         <v>1</v>
       </c>
       <c r="Y90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+      <c r="AC90" s="1"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="1">
-        <v>0</v>
-      </c>
       <c r="C91" s="1">
         <v>0</v>
       </c>
@@ -7512,7 +8162,7 @@
       <c r="E91" s="1">
         <v>0</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
         <v>0</v>
       </c>
       <c r="G91">
@@ -7525,22 +8175,22 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -7570,17 +8220,21 @@
         <v>0</v>
       </c>
       <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+      <c r="AC91" s="1"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="1">
-        <v>0</v>
-      </c>
       <c r="C92" s="1">
         <v>0</v>
       </c>
@@ -7590,14 +8244,14 @@
       <c r="E92" s="1">
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -7621,19 +8275,19 @@
         <v>0</v>
       </c>
       <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
         <v>2</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
       <c r="R92">
         <v>0</v>
       </c>
       <c r="S92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -7648,17 +8302,21 @@
         <v>0</v>
       </c>
       <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+      <c r="AC92" s="1"/>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
       <c r="C93" s="1">
         <v>0</v>
       </c>
@@ -7668,7 +8326,7 @@
       <c r="E93" s="1">
         <v>0</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="1">
         <v>0</v>
       </c>
       <c r="G93">
@@ -7687,19 +8345,19 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
         <v>2</v>
       </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
       <c r="O93">
         <v>0</v>
       </c>
       <c r="P93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -7714,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -7726,27 +8384,31 @@
         <v>0</v>
       </c>
       <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+      <c r="AC93" s="1"/>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="1">
-        <v>0</v>
-      </c>
       <c r="C94" s="1">
         <v>0</v>
       </c>
       <c r="D94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
-      </c>
-      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
         <v>0</v>
       </c>
       <c r="G94">
@@ -7786,10 +8448,10 @@
         <v>0</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U94">
         <v>0</v>
@@ -7798,33 +8460,37 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+      <c r="AC94" s="1"/>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95" s="1">
-        <v>0</v>
-      </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>0</v>
       </c>
       <c r="G95">
@@ -7846,11 +8512,11 @@
         <v>0</v>
       </c>
       <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
         <v>2</v>
       </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
       <c r="O95">
         <v>0</v>
       </c>
@@ -7882,17 +8548,21 @@
         <v>0</v>
       </c>
       <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+      <c r="AC95" s="1"/>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96" s="1">
-        <v>0</v>
-      </c>
       <c r="C96" s="1">
         <v>0</v>
       </c>
@@ -7902,7 +8572,7 @@
       <c r="E96" s="1">
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>0</v>
       </c>
       <c r="G96">
@@ -7933,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7960,17 +8630,21 @@
         <v>0</v>
       </c>
       <c r="Y96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="1"/>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B97" s="1">
-        <v>0</v>
-      </c>
       <c r="C97" s="1">
         <v>0</v>
       </c>
@@ -7980,7 +8654,7 @@
       <c r="E97" s="1">
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>0</v>
       </c>
       <c r="G97">
@@ -8002,11 +8676,11 @@
         <v>0</v>
       </c>
       <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
         <v>2</v>
       </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
       <c r="O97">
         <v>0</v>
       </c>
@@ -8017,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97">
         <v>0</v>
@@ -8038,8 +8712,12 @@
         <v>0</v>
       </c>
       <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
         <v>3</v>
       </c>
+      <c r="AC97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
